--- a/Chandrakala_Vugen.xlsx
+++ b/Chandrakala_Vugen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stromrunner" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="281">
   <si>
     <t>https://performanceengineeringsite.wordpress.com/2016/10/15/how-to-set-loadrunner-agent-as-a-service-or-process-after-installation/?blogsub=confirming#blog_subscription-3</t>
   </si>
@@ -778,12 +778,174 @@
   <si>
     <t>5.[shandbashshells]Launchthesetupwizardbytyping:source./installer.sh.</t>
   </si>
+  <si>
+    <t>https://www.vinsguru.com/jmeter-performance-testing-application-of-littles-law-to-workload-models/</t>
+  </si>
+  <si>
+    <t>https://www.speforums.com/resources/littles-law-in-performance-engineering.66/</t>
+  </si>
+  <si>
+    <t>Little‘s law holds valid only under below conditions</t>
+  </si>
+  <si>
+    <t>- Little‘s law holds good as long as the as the Requests are not created or destroyed within the system.</t>
+  </si>
+  <si>
+    <t>- It assumes the system to be a stable system (Rate of arrival equals rate of departure)</t>
+  </si>
+  <si>
+    <t>It applies to any ―black box‖, which may contain any arbitrary set of components. If the box contains a single resource ( e.g.: single CPU or a single system) or if the box contains a complex system ( e.g.: internet, a city full of systems).</t>
+  </si>
+  <si>
+    <t>Thus, Little‘s law can be applied to a software systems and can be rephrased as - The average number of users in a queuing system N is equal to the average throughput of system X, multiplied by the average response time of system R.</t>
+  </si>
+  <si>
+    <t>Numarically,</t>
+  </si>
+  <si>
+    <t>N = R * X</t>
+  </si>
+  <si>
+    <t>Where,</t>
+  </si>
+  <si>
+    <t>N = average number of users in a system</t>
+  </si>
+  <si>
+    <t>X = average throughput or departure rate of users</t>
+  </si>
+  <si>
+    <t>R = average time spent in the system or response time</t>
+  </si>
+  <si>
+    <t>Modifying above stated law for performance engineering and adding think time (TT)</t>
+  </si>
+  <si>
+    <t>N = (R + TT)* X</t>
+  </si>
+  <si>
+    <t>Uses of Little’s law in performance engineering and testing</t>
+  </si>
+  <si>
+    <t>1. Used for designing the test (Modelling workload) – Littles law can be used while designing the test to achieve a desired throughput and calculate appropriate think times (wait times) to be placed inside test script.</t>
+  </si>
+  <si>
+    <t>2. Used for validating the correctness of test – Every performance test should be verified for correctness by applying littles law on to the results.</t>
+  </si>
+  <si>
+    <t>Some practice questions –</t>
+  </si>
+  <si>
+    <r>
+      <t>Problem 1 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Customers exit from a bank at an avg. rate of 2/min. They spend an average of 10 min in the bank. What is the average number of customers in the bank at any time? Assume a stable system.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solution : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rate of input customers = X = 2/min</t>
+    </r>
+  </si>
+  <si>
+    <t>Time to service = R = 10 Min</t>
+  </si>
+  <si>
+    <t>By littles law : N=R*X</t>
+  </si>
+  <si>
+    <t>N= Number of customers inside bank = 10 * 2 = 20 Customers!</t>
+  </si>
+  <si>
+    <r>
+      <t>Problem 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> – Determine Concurrent Users in a performance test based on following data-</t>
+    </r>
+  </si>
+  <si>
+    <t>A system at processes 1000 Transactions/Hour with an average response time of 5s per transaction. The average Think Time per user is = 10s. What is the number of concurrent users on the system?</t>
+  </si>
+  <si>
+    <t>Throughput or X = 1000/3600 = 0.27 TPS (Transactions Per Second)</t>
+  </si>
+  <si>
+    <t>From Littles Law : N = [R + TT] * X</t>
+  </si>
+  <si>
+    <t>Applying the equation: N = [ 5 + 10 ] * 1000/3600 = 4.16</t>
+  </si>
+  <si>
+    <t>The above system has approximately 4 concurrent users inside the system at any given point of time.</t>
+  </si>
+  <si>
+    <t>Problem 3 – How to validate software Performance Test Results:</t>
+  </si>
+  <si>
+    <t>Below details were collected during a test for constant load, Predict if the test was correctly executed or not?</t>
+  </si>
+  <si>
+    <t>Peak User Concurrency = 400</t>
+  </si>
+  <si>
+    <t>Average Transactional Response Time = 10s</t>
+  </si>
+  <si>
+    <t>Average User Think Time = 10s</t>
+  </si>
+  <si>
+    <t>Peak Transactional Throughput ( as recorded by the tool) = 10 TPS</t>
+  </si>
+  <si>
+    <t>Solution: Try applying littles law to the above results</t>
+  </si>
+  <si>
+    <t>N = [R + TT] * X</t>
+  </si>
+  <si>
+    <t>Solving right hand side = [10 + 10] * 10 = 200 Users</t>
+  </si>
+  <si>
+    <t>This is not equal to left hand side. Hence it can be predicted that something went terribly wrong with this test.</t>
+  </si>
+  <si>
+    <t>https://www.speforums.com/resources/response-time.59/</t>
+  </si>
+  <si>
+    <t>https://www.speforums.com/resources/resource-utilization.61/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,6 +989,23 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -894,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -925,6 +1104,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1574,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:C5"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
@@ -1603,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M339"/>
+  <dimension ref="A1:M438"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L313" sqref="L313"/>
+    <sheetView tabSelected="1" topLeftCell="A421" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,8 +2740,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+    <row r="301" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2710,19 +2895,364 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="2"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="2"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B410" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B412" s="2"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B413" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B415" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B416" s="2"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B417" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B418" s="2"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B419" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B420" s="2"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B421" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B422" s="2"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B423" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B424" s="2"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B425" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B427" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B428" s="2"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B429" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B431" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +3271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
